--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,6 +127,15 @@
   </x:si>
   <x:si>
     <x:t>Eyad Mohamed Elsayed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بثينه احمد محمد جندى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bothaina Ahmed Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240218</x:t>
@@ -563,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -863,7 +872,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1304,7 +1313,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,9 +1341,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1357,16 +1368,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1398,7 +1407,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1430,7 +1439,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.5598096875</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1462,7 +1471,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.0177508912</x:v>
+        <x:v>45909.5598096875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1494,7 +1503,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.0178822917</x:v>
+        <x:v>45915.0177508912</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1526,7 +1535,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45915.0178822917</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1558,7 +1567,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.0180269329</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1590,7 +1599,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.0174484143</x:v>
+        <x:v>45915.0180269329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1622,7 +1631,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.017606713</x:v>
+        <x:v>45915.0174484143</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1654,7 +1663,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0181048611</x:v>
+        <x:v>45915.017606713</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1686,7 +1695,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45915.0181048611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1718,7 +1727,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1750,7 +1759,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1782,7 +1791,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1814,7 +1823,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1846,7 +1855,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1878,7 +1887,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4157390394</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1910,7 +1919,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.0176778125</x:v>
+        <x:v>45909.4157390394</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1942,7 +1951,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45915.0176778125</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1974,7 +1983,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2006,7 +2015,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2038,7 +2047,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2070,7 +2079,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2102,7 +2111,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.5098578704</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2134,7 +2143,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.5098578704</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2166,7 +2175,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2198,7 +2207,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2230,7 +2239,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.0175257292</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2262,7 +2271,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.0175257292</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2294,7 +2303,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.0173689815</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2326,7 +2335,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45915.0173689815</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2358,7 +2367,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2390,7 +2399,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2422,7 +2431,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2439,6 +2448,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -2486,11 +2486,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : [20503]20503-45-الجيزة الرئيسي Time : Sunday(10:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : 1125- 170 Time : Sunday(10:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : [20503]20503-45-الجيزة الرئيسي Time : Sunday(10:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : 1125- 170 Time : Sunday(10:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : [20503]20503-45-الجيزة الرئيسي Time : Sunday(10:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : 1125- 170 Time : Sunday(10:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -100,15 +100,6 @@
   </x:si>
   <x:si>
     <x:t>Islam Ayman Ahmed Mohamed Beledy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240027</x:t>
@@ -572,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -872,7 +863,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1217,7 +1208,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4924033218</x:v>
+        <x:v>45908.4159268171</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1249,7 +1240,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4159268171</x:v>
+        <x:v>45915.017959375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1281,7 +1272,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.017959375</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1313,7 +1304,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1341,11 +1332,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1368,14 +1357,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1407,7 +1398,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1439,7 +1430,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45909.5598096875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1471,7 +1462,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5598096875</x:v>
+        <x:v>45915.0177508912</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1503,7 +1494,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.0177508912</x:v>
+        <x:v>45915.0178822917</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1535,7 +1526,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.0178822917</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1567,7 +1558,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45915.0180269329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1599,7 +1590,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.0180269329</x:v>
+        <x:v>45915.0174484143</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1631,7 +1622,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.0174484143</x:v>
+        <x:v>45915.017606713</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1663,7 +1654,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.017606713</x:v>
+        <x:v>45915.0181048611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1695,7 +1686,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0181048611</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1727,7 +1718,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1759,7 +1750,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1791,7 +1782,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1823,7 +1814,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1855,7 +1846,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1887,7 +1878,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45909.4157390394</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1919,7 +1910,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4157390394</x:v>
+        <x:v>45915.0176778125</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1951,7 +1942,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.0176778125</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1983,7 +1974,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2015,7 +2006,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2047,7 +2038,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2079,7 +2070,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2111,7 +2102,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45909.5098578704</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2143,7 +2134,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.5098578704</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2175,7 +2166,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2207,7 +2198,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2239,7 +2230,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45915.0175257292</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2271,7 +2262,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.0175257292</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2303,7 +2294,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.0173689815</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2335,7 +2326,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.0173689815</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2367,7 +2358,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2399,7 +2390,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2431,7 +2422,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2448,38 +2439,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45908.4155164352</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -268,6 +268,15 @@
   </x:si>
   <x:si>
     <x:t>Ezzeldin Mohamed Ezzeldin Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد طارق سعد عبدالحميد البرهامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Tarek Saad Abdelhamid Elborhamy</x:t>
   </x:si>
   <x:si>
     <x:t>1240336</x:t>
@@ -563,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -863,7 +872,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -871,7 +880,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.260625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1814,7 +1823,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45929.3962647338</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1846,7 +1855,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1878,7 +1887,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4157390394</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1910,7 +1919,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.0176778125</x:v>
+        <x:v>45909.4157390394</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1942,7 +1951,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45915.0176778125</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1974,7 +1983,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2006,7 +2015,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2038,7 +2047,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2070,7 +2079,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2102,7 +2111,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.5098578704</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2134,7 +2143,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.5098578704</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2166,7 +2175,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2198,7 +2207,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2230,7 +2239,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.0175257292</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2262,7 +2271,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.0175257292</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2294,7 +2303,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.0173689815</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2326,7 +2335,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45915.0173689815</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2358,7 +2367,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2390,7 +2399,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2422,7 +2431,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2439,6 +2448,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Adam Ahmed Sayed Ali Khalil Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسامه حامد شعبان حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osama Hamed Shabaan Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1240192</x:t>
@@ -572,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -872,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1151,9 +1160,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4156471412</x:v>
+        <x:v>45929.8031680903</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1176,16 +1187,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45909.4813184838</x:v>
+        <x:v>45909.4156471412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1217,7 +1226,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4159268171</x:v>
+        <x:v>45909.4813184838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1249,7 +1258,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.017959375</x:v>
+        <x:v>45908.4159268171</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1281,7 +1290,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45915.017959375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1313,7 +1322,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1341,9 +1350,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1366,16 +1377,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1439,7 +1448,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.5598096875</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1471,7 +1480,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.0177508912</x:v>
+        <x:v>45909.5598096875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1503,7 +1512,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.0178822917</x:v>
+        <x:v>45915.0177508912</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1535,7 +1544,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45915.0178822917</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1567,7 +1576,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.0180269329</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1599,7 +1608,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.0174484143</x:v>
+        <x:v>45915.0180269329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1631,7 +1640,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.017606713</x:v>
+        <x:v>45915.0174484143</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1663,7 +1672,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0181048611</x:v>
+        <x:v>45915.017606713</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1695,7 +1704,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45915.0181048611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1727,7 +1736,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1759,7 +1768,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1791,7 +1800,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1823,7 +1832,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.3962647338</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1855,7 +1864,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45929.3962647338</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1887,7 +1896,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1919,7 +1928,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4157390394</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1951,7 +1960,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.0176778125</x:v>
+        <x:v>45909.4157390394</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1983,7 +1992,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45915.0176778125</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2015,7 +2024,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2047,7 +2056,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2079,7 +2088,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2111,7 +2120,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2143,7 +2152,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.5098578704</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2175,7 +2184,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.5098578704</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2207,7 +2216,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2239,7 +2248,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2271,7 +2280,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.0175257292</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2303,7 +2312,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.0175257292</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2335,7 +2344,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.0173689815</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2367,7 +2376,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45915.0173689815</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2399,7 +2408,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2431,7 +2440,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2463,7 +2472,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2480,6 +2489,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -189,6 +189,15 @@
     <x:t>Ziad Ayman Kamal Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240427</x:t>
   </x:si>
   <x:si>
@@ -448,6 +457,15 @@
   </x:si>
   <x:si>
     <x:t>Hoda Khaled Mohammed Amjali Elmacaron Elindan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين عماد فتحي السيد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassin emad fathy elsayed selyman</x:t>
   </x:si>
   <x:si>
     <x:t>1240189</x:t>
@@ -581,7 +599,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -881,7 +899,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1544,7 +1562,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.0178822917</x:v>
+        <x:v>45931.4574162847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1576,7 +1594,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45915.0178822917</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1608,7 +1626,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.0180269329</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1640,7 +1658,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.0174484143</x:v>
+        <x:v>45915.0180269329</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1672,7 +1690,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.017606713</x:v>
+        <x:v>45915.0174484143</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1704,7 +1722,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0181048611</x:v>
+        <x:v>45915.017606713</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1736,7 +1754,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45915.0181048611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1768,7 +1786,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1800,7 +1818,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1832,7 +1850,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1864,7 +1882,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.3962647338</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1896,7 +1914,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45929.3962647338</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1928,7 +1946,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1960,7 +1978,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4157390394</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1992,7 +2010,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.0176778125</x:v>
+        <x:v>45909.4157390394</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2024,7 +2042,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45915.0176778125</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2056,7 +2074,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2088,7 +2106,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2120,7 +2138,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2152,7 +2170,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2184,7 +2202,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.5098578704</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2216,7 +2234,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.5098578704</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2248,7 +2266,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2280,7 +2298,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2312,7 +2330,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.0175257292</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2344,7 +2362,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.0175257292</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2376,7 +2394,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.0173689815</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2408,7 +2426,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45915.0173689815</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2440,7 +2458,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2472,7 +2490,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2504,7 +2522,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45931.5006549421</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2521,6 +2539,70 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t>Islam Ayman Ahmed Mohamed Beledy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240027</x:t>
@@ -599,7 +608,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -899,7 +908,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T53"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1276,7 +1285,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4159268171</x:v>
+        <x:v>45934.3921784722</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.017959375</x:v>
+        <x:v>45908.4159268171</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1340,7 +1349,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45915.017959375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1372,7 +1381,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1400,9 +1409,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1425,16 +1436,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5598096875</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.0177508912</x:v>
+        <x:v>45909.5598096875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1562,7 +1571,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45931.4574162847</x:v>
+        <x:v>45915.0177508912</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1594,7 +1603,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.0178822917</x:v>
+        <x:v>45931.4574162847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1626,7 +1635,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45915.0178822917</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1658,7 +1667,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.0180269329</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1690,7 +1699,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0174484143</x:v>
+        <x:v>45915.0180269329</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1722,7 +1731,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.017606713</x:v>
+        <x:v>45915.0174484143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1754,7 +1763,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0181048611</x:v>
+        <x:v>45915.017606713</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1786,7 +1795,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45915.0181048611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1818,7 +1827,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1850,7 +1859,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1882,7 +1891,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1914,7 +1923,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45929.3962647338</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1946,7 +1955,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45929.3962647338</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1978,7 +1987,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2010,7 +2019,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4157390394</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2042,7 +2051,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.0176778125</x:v>
+        <x:v>45909.4157390394</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2074,7 +2083,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45915.0176778125</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2106,7 +2115,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2138,7 +2147,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2170,7 +2179,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2202,7 +2211,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2234,7 +2243,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.5098578704</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2266,7 +2275,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.5098578704</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2298,7 +2307,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2330,7 +2339,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2362,7 +2371,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.0175257292</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2394,7 +2403,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.0175257292</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2426,7 +2435,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.0173689815</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2458,7 +2467,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45915.0173689815</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2490,7 +2499,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2522,7 +2531,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45931.5006549421</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2554,7 +2563,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45931.5006549421</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2586,7 +2595,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2603,6 +2612,38 @@
       <x:c r="R52" s="2" t="s"/>
       <x:c r="S52" s="2" t="s"/>
       <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E53" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -198,6 +198,15 @@
     <x:t>Ziad Ayman Kamal Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد علاء كمال احمد عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad Alaa Kamal Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240412</x:t>
   </x:si>
   <x:si>
@@ -360,6 +369,15 @@
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
   </x:si>
   <x:si>
+    <x:t>1240118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240349</x:t>
   </x:si>
   <x:si>
@@ -484,6 +502,15 @@
   </x:si>
   <x:si>
     <x:t>Yousef Ahmed Saad Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240394</x:t>
@@ -608,7 +635,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -908,7 +935,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T53"/>
+  <x:dimension ref="A1:T56"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1603,7 +1630,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45931.4574162847</x:v>
+        <x:v>45937.3496776968</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1635,7 +1662,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.0178822917</x:v>
+        <x:v>45931.4574162847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1667,7 +1694,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45915.0178822917</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1699,7 +1726,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0180269329</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1731,7 +1758,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0174484143</x:v>
+        <x:v>45915.0180269329</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1763,7 +1790,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.017606713</x:v>
+        <x:v>45915.0174484143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1795,7 +1822,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0181048611</x:v>
+        <x:v>45915.017606713</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1827,7 +1854,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45915.0181048611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1859,7 +1886,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1891,7 +1918,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1923,7 +1950,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1955,7 +1982,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45929.3962647338</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1987,7 +2014,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45929.3962647338</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2019,7 +2046,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2051,7 +2078,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4157390394</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2083,7 +2110,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.0176778125</x:v>
+        <x:v>45909.4157390394</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2115,7 +2142,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45915.0176778125</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2147,7 +2174,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2179,7 +2206,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2211,7 +2238,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45937.3496776968</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2243,7 +2270,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2275,7 +2302,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.5098578704</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2307,7 +2334,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2339,7 +2366,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45909.5098578704</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2371,7 +2398,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2403,7 +2430,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.0175257292</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2435,7 +2462,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2467,7 +2494,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.0173689815</x:v>
+        <x:v>45915.0175257292</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2499,7 +2526,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2531,7 +2558,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45915.0173689815</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2563,7 +2590,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45931.5006549421</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2595,7 +2622,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2627,7 +2654,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45931.5006549421</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2644,6 +2671,102 @@
       <x:c r="R53" s="2" t="s"/>
       <x:c r="S53" s="2" t="s"/>
       <x:c r="T53" s="2" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:20">
+      <x:c r="A54" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E54" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s"/>
+      <x:c r="G54" s="2" t="s"/>
+      <x:c r="H54" s="2" t="s"/>
+      <x:c r="I54" s="2" t="s"/>
+      <x:c r="J54" s="2" t="s"/>
+      <x:c r="K54" s="2" t="s"/>
+      <x:c r="L54" s="2" t="s"/>
+      <x:c r="M54" s="2" t="s"/>
+      <x:c r="N54" s="2" t="s"/>
+      <x:c r="O54" s="2" t="s"/>
+      <x:c r="P54" s="2" t="s"/>
+      <x:c r="Q54" s="2" t="s"/>
+      <x:c r="R54" s="2" t="s"/>
+      <x:c r="S54" s="2" t="s"/>
+      <x:c r="T54" s="2" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20">
+      <x:c r="A55" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E55" s="3">
+        <x:v>45937.3509163542</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s"/>
+      <x:c r="G55" s="2" t="s"/>
+      <x:c r="H55" s="2" t="s"/>
+      <x:c r="I55" s="2" t="s"/>
+      <x:c r="J55" s="2" t="s"/>
+      <x:c r="K55" s="2" t="s"/>
+      <x:c r="L55" s="2" t="s"/>
+      <x:c r="M55" s="2" t="s"/>
+      <x:c r="N55" s="2" t="s"/>
+      <x:c r="O55" s="2" t="s"/>
+      <x:c r="P55" s="2" t="s"/>
+      <x:c r="Q55" s="2" t="s"/>
+      <x:c r="R55" s="2" t="s"/>
+      <x:c r="S55" s="2" t="s"/>
+      <x:c r="T55" s="2" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:20">
+      <x:c r="A56" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E56" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s"/>
+      <x:c r="G56" s="2" t="s"/>
+      <x:c r="H56" s="2" t="s"/>
+      <x:c r="I56" s="2" t="s"/>
+      <x:c r="J56" s="2" t="s"/>
+      <x:c r="K56" s="2" t="s"/>
+      <x:c r="L56" s="2" t="s"/>
+      <x:c r="M56" s="2" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
+      <x:c r="P56" s="2" t="s"/>
+      <x:c r="Q56" s="2" t="s"/>
+      <x:c r="R56" s="2" t="s"/>
+      <x:c r="S56" s="2" t="s"/>
+      <x:c r="T56" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Osama Tamer Abdelaziz Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1230148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم احمد ابراهيم محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Ahmed Ibrahim Mohammed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240013</x:t>
   </x:si>
   <x:si>
@@ -87,39 +78,6 @@
     <x:t>Adam Ahmed Sayed Ali Khalil Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسامه حامد شعبان حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osama Hamed Shabaan Hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسراء عبدالحميد محمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسلام ايمن احمد محمد بليدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Islam Ayman Ahmed Mohamed Beledy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240027</x:t>
   </x:si>
   <x:si>
@@ -129,24 +87,6 @@
     <x:t>El-Sayed Mohamed El-Sayed Hassan Barakat</x:t>
   </x:si>
   <x:si>
-    <x:t>1240291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اياد محمد السيد عبد الحليم ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eyad Mohamed Elsayed Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بثينه احمد محمد جندى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bothaina Ahmed Mohammed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240218</x:t>
   </x:si>
   <x:si>
@@ -180,51 +120,6 @@
     <x:t>ziad ahmed omar mohamed mahmoud gad</x:t>
   </x:si>
   <x:si>
-    <x:t>1240065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد احمد محمد المغازى مخلوف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zyad Ahmed mohamed Almoghazy makhlouf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد ايمن كمال محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Ayman Kamal Mohamed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد علاء كمال احمد عبد الرحيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zyad Alaa Kamal Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240427</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيد فصيح حسين بخارى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Syed Faseeh</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220331</x:t>
   </x:si>
   <x:si>
@@ -234,42 +129,6 @@
     <x:t>Syed Mumtaz Hussain Bokhari</x:t>
   </x:si>
   <x:si>
-    <x:t>1240078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شريف محمد احمد سيد عبداللطيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherif Mohammed Ahmed Sayed Abdelatif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الكريم محمد ابوزيد محمد ابوزيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelkareem Mohamed Abouzeid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله إيهاب كمال الدين عبد السلام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن حسام الدين مختار حسينى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Hossam Eldin Mokhtar Husseini</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240235</x:t>
   </x:si>
   <x:si>
@@ -306,15 +165,6 @@
     <x:t>Ezzeldin Mohamed Ezzeldin Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد طارق سعد عبدالحميد البرهامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Tarek Saad Abdelhamid Elborhamy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240336</x:t>
   </x:si>
   <x:si>
@@ -333,24 +183,6 @@
     <x:t>Omar Elsayed Kamal Abdelaziz Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عصام ابوطالب عبدالقوي النجار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Essam Abotaleb Elnaggar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد السيد كريم سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar mohamed elsayed karim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230219</x:t>
   </x:si>
   <x:si>
@@ -369,15 +201,6 @@
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
   </x:si>
   <x:si>
-    <x:t>1240118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240349</x:t>
   </x:si>
   <x:si>
@@ -396,24 +219,6 @@
     <x:t>KARIM ELZIAT</x:t>
   </x:si>
   <x:si>
-    <x:t>4250192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حسام محمد عبدالقادر عبدالحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Hossam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240361</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240362</x:t>
   </x:si>
   <x:si>
@@ -441,15 +246,6 @@
     <x:t>Mostafa Ayman ElSayed Ibrahim Shahin</x:t>
   </x:si>
   <x:si>
-    <x:t>1240373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى عمرو ماهر جلال محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Amr Maher Galal Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240270</x:t>
   </x:si>
   <x:si>
@@ -459,15 +255,6 @@
     <x:t>Moaz Mahmoud Ahmad Al-Najjar</x:t>
   </x:si>
   <x:si>
-    <x:t>1240272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مينا ايهاب سمير الفي عطا الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mina Ehab Samir Alfi Atallah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240199</x:t>
   </x:si>
   <x:si>
@@ -477,24 +264,6 @@
     <x:t>Mena Melad Fanous Isaac</x:t>
   </x:si>
   <x:si>
-    <x:t>2240003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هدى خالد محمد امجلى المكرون الهندى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoda Khaled Mohammed Amjali Elmacaron Elindan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسين عماد فتحي السيد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassin emad fathy elsayed selyman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240189</x:t>
   </x:si>
   <x:si>
@@ -502,15 +271,6 @@
   </x:si>
   <x:si>
     <x:t>Yousef Ahmed Saad Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240394</x:t>
@@ -635,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -935,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T56"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -943,9 +703,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.260625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.240625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.220625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1122,7 +882,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4775611921</x:v>
+        <x:v>45908.4152478819</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1154,7 +914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4152478819</x:v>
+        <x:v>45908.4159935185</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1186,7 +946,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4159935185</x:v>
+        <x:v>45908.4159268171</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1218,7 +978,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45929.8031680903</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1248,7 +1008,7 @@
       </x:c>
       <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45909.4156471412</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1280,7 +1040,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4813184838</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1312,7 +1072,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45934.3921784722</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1344,7 +1104,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4159268171</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1376,7 +1136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.017959375</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1408,7 +1168,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1440,7 +1200,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1468,9 +1228,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1493,16 +1255,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1525,16 +1287,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1557,16 +1319,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5598096875</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1589,16 +1351,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.0177508912</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1621,16 +1383,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45937.3496776968</x:v>
+        <x:v>45909.415119213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1653,16 +1415,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45931.4574162847</x:v>
+        <x:v>45909.4149912847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1685,16 +1447,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.0178822917</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1717,16 +1479,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1749,16 +1511,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0180269329</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1781,16 +1543,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0174484143</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1813,16 +1575,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.017606713</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1845,16 +1607,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.0181048611</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1877,16 +1639,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1904,870 +1666,6 @@
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
     </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45908.4155668981</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45908.4157890046</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45908.4160626968</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45929.3962647338</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45908.4151978009</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45909.4151439468</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45909.4157390394</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45915.0176778125</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45908.4154959491</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45908.4156496181</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45937.3496776968</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45909.415119213</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45909.4149912847</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45918.5069047454</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45909.5098578704</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45908.4149094097</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45907.6655889236</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45908.4154908912</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45915.0175257292</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45908.4147947569</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45915.0173689815</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20">
-      <x:c r="A51" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="E51" s="3">
-        <x:v>45908.4160849537</x:v>
-      </x:c>
-      <x:c r="F51" s="2" t="s"/>
-      <x:c r="G51" s="2" t="s"/>
-      <x:c r="H51" s="2" t="s"/>
-      <x:c r="I51" s="2" t="s"/>
-      <x:c r="J51" s="2" t="s"/>
-      <x:c r="K51" s="2" t="s"/>
-      <x:c r="L51" s="2" t="s"/>
-      <x:c r="M51" s="2" t="s"/>
-      <x:c r="N51" s="2" t="s"/>
-      <x:c r="O51" s="2" t="s"/>
-      <x:c r="P51" s="2" t="s"/>
-      <x:c r="Q51" s="2" t="s"/>
-      <x:c r="R51" s="2" t="s"/>
-      <x:c r="S51" s="2" t="s"/>
-      <x:c r="T51" s="2" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:20">
-      <x:c r="A52" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="E52" s="3">
-        <x:v>45916.5847720255</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s"/>
-      <x:c r="G52" s="2" t="s"/>
-      <x:c r="H52" s="2" t="s"/>
-      <x:c r="I52" s="2" t="s"/>
-      <x:c r="J52" s="2" t="s"/>
-      <x:c r="K52" s="2" t="s"/>
-      <x:c r="L52" s="2" t="s"/>
-      <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="2" t="s"/>
-      <x:c r="O52" s="2" t="s"/>
-      <x:c r="P52" s="2" t="s"/>
-      <x:c r="Q52" s="2" t="s"/>
-      <x:c r="R52" s="2" t="s"/>
-      <x:c r="S52" s="2" t="s"/>
-      <x:c r="T52" s="2" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:20">
-      <x:c r="A53" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="E53" s="3">
-        <x:v>45931.5006549421</x:v>
-      </x:c>
-      <x:c r="F53" s="2" t="s"/>
-      <x:c r="G53" s="2" t="s"/>
-      <x:c r="H53" s="2" t="s"/>
-      <x:c r="I53" s="2" t="s"/>
-      <x:c r="J53" s="2" t="s"/>
-      <x:c r="K53" s="2" t="s"/>
-      <x:c r="L53" s="2" t="s"/>
-      <x:c r="M53" s="2" t="s"/>
-      <x:c r="N53" s="2" t="s"/>
-      <x:c r="O53" s="2" t="s"/>
-      <x:c r="P53" s="2" t="s"/>
-      <x:c r="Q53" s="2" t="s"/>
-      <x:c r="R53" s="2" t="s"/>
-      <x:c r="S53" s="2" t="s"/>
-      <x:c r="T53" s="2" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:20">
-      <x:c r="A54" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B54" s="2" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C54" s="2" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D54" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="E54" s="3">
-        <x:v>45908.4153125</x:v>
-      </x:c>
-      <x:c r="F54" s="2" t="s"/>
-      <x:c r="G54" s="2" t="s"/>
-      <x:c r="H54" s="2" t="s"/>
-      <x:c r="I54" s="2" t="s"/>
-      <x:c r="J54" s="2" t="s"/>
-      <x:c r="K54" s="2" t="s"/>
-      <x:c r="L54" s="2" t="s"/>
-      <x:c r="M54" s="2" t="s"/>
-      <x:c r="N54" s="2" t="s"/>
-      <x:c r="O54" s="2" t="s"/>
-      <x:c r="P54" s="2" t="s"/>
-      <x:c r="Q54" s="2" t="s"/>
-      <x:c r="R54" s="2" t="s"/>
-      <x:c r="S54" s="2" t="s"/>
-      <x:c r="T54" s="2" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:20">
-      <x:c r="A55" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B55" s="2" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C55" s="2" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="D55" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="E55" s="3">
-        <x:v>45937.3509163542</x:v>
-      </x:c>
-      <x:c r="F55" s="2" t="s"/>
-      <x:c r="G55" s="2" t="s"/>
-      <x:c r="H55" s="2" t="s"/>
-      <x:c r="I55" s="2" t="s"/>
-      <x:c r="J55" s="2" t="s"/>
-      <x:c r="K55" s="2" t="s"/>
-      <x:c r="L55" s="2" t="s"/>
-      <x:c r="M55" s="2" t="s"/>
-      <x:c r="N55" s="2" t="s"/>
-      <x:c r="O55" s="2" t="s"/>
-      <x:c r="P55" s="2" t="s"/>
-      <x:c r="Q55" s="2" t="s"/>
-      <x:c r="R55" s="2" t="s"/>
-      <x:c r="S55" s="2" t="s"/>
-      <x:c r="T55" s="2" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:20">
-      <x:c r="A56" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="E56" s="3">
-        <x:v>45908.4155164352</x:v>
-      </x:c>
-      <x:c r="F56" s="2" t="s"/>
-      <x:c r="G56" s="2" t="s"/>
-      <x:c r="H56" s="2" t="s"/>
-      <x:c r="I56" s="2" t="s"/>
-      <x:c r="J56" s="2" t="s"/>
-      <x:c r="K56" s="2" t="s"/>
-      <x:c r="L56" s="2" t="s"/>
-      <x:c r="M56" s="2" t="s"/>
-      <x:c r="N56" s="2" t="s"/>
-      <x:c r="O56" s="2" t="s"/>
-      <x:c r="P56" s="2" t="s"/>
-      <x:c r="Q56" s="2" t="s"/>
-      <x:c r="R56" s="2" t="s"/>
-      <x:c r="S56" s="2" t="s"/>
-      <x:c r="T56" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2780,9 +1678,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : 1125- 170 Time : Sunday(10:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Osama Tamer Abdelaziz Salem</x:t>
   </x:si>
   <x:si>
+    <x:t>1230148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم احمد ابراهيم محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Ahmed Ibrahim Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240013</x:t>
   </x:si>
   <x:si>
@@ -78,6 +87,39 @@
     <x:t>Adam Ahmed Sayed Ali Khalil Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1230017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسامه حامد شعبان حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osama Hamed Shabaan Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسراء عبدالحميد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسلام ايمن احمد محمد بليدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islam Ayman Ahmed Mohamed Beledy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240027</x:t>
   </x:si>
   <x:si>
@@ -87,6 +129,24 @@
     <x:t>El-Sayed Mohamed El-Sayed Hassan Barakat</x:t>
   </x:si>
   <x:si>
+    <x:t>1240291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اياد محمد السيد عبد الحليم ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eyad Mohamed Elsayed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بثينه احمد محمد جندى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bothaina Ahmed Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240218</x:t>
   </x:si>
   <x:si>
@@ -120,6 +180,51 @@
     <x:t>ziad ahmed omar mohamed mahmoud gad</x:t>
   </x:si>
   <x:si>
+    <x:t>1240065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد احمد محمد المغازى مخلوف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad Ahmed mohamed Almoghazy makhlouf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد ايمن كمال محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ayman Kamal Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد علاء كمال احمد عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad Alaa Kamal Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240427</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيد فصيح حسين بخارى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Syed Faseeh</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220331</x:t>
   </x:si>
   <x:si>
@@ -129,6 +234,42 @@
     <x:t>Syed Mumtaz Hussain Bokhari</x:t>
   </x:si>
   <x:si>
+    <x:t>1240078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شريف محمد احمد سيد عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherif Mohammed Ahmed Sayed Abdelatif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الكريم محمد ابوزيد محمد ابوزيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelkareem Mohamed Abouzeid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله إيهاب كمال الدين عبد السلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن حسام الدين مختار حسينى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Hossam Eldin Mokhtar Husseini</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240235</x:t>
   </x:si>
   <x:si>
@@ -165,6 +306,15 @@
     <x:t>Ezzeldin Mohamed Ezzeldin Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد طارق سعد عبدالحميد البرهامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Tarek Saad Abdelhamid Elborhamy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240336</x:t>
   </x:si>
   <x:si>
@@ -183,6 +333,24 @@
     <x:t>Omar Elsayed Kamal Abdelaziz Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام ابوطالب عبدالقوي النجار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Abotaleb Elnaggar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد السيد كريم سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar mohamed elsayed karim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230219</x:t>
   </x:si>
   <x:si>
@@ -201,6 +369,15 @@
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
   </x:si>
   <x:si>
+    <x:t>1240118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240349</x:t>
   </x:si>
   <x:si>
@@ -219,6 +396,24 @@
     <x:t>KARIM ELZIAT</x:t>
   </x:si>
   <x:si>
+    <x:t>4250192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام محمد عبدالقادر عبدالحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hossam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240362</x:t>
   </x:si>
   <x:si>
@@ -246,6 +441,15 @@
     <x:t>Mostafa Ayman ElSayed Ibrahim Shahin</x:t>
   </x:si>
   <x:si>
+    <x:t>1240373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى عمرو ماهر جلال محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Amr Maher Galal Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240270</x:t>
   </x:si>
   <x:si>
@@ -255,6 +459,15 @@
     <x:t>Moaz Mahmoud Ahmad Al-Najjar</x:t>
   </x:si>
   <x:si>
+    <x:t>1240272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مينا ايهاب سمير الفي عطا الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mina Ehab Samir Alfi Atallah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240199</x:t>
   </x:si>
   <x:si>
@@ -264,6 +477,24 @@
     <x:t>Mena Melad Fanous Isaac</x:t>
   </x:si>
   <x:si>
+    <x:t>2240003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هدى خالد محمد امجلى المكرون الهندى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoda Khaled Mohammed Amjali Elmacaron Elindan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين عماد فتحي السيد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassin emad fathy elsayed selyman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240189</x:t>
   </x:si>
   <x:si>
@@ -271,6 +502,15 @@
   </x:si>
   <x:si>
     <x:t>Yousef Ahmed Saad Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240394</x:t>
@@ -395,7 +635,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +935,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T56"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -703,9 +943,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.240625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.260625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -882,7 +1122,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4152478819</x:v>
+        <x:v>45909.4775611921</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -914,7 +1154,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4159935185</x:v>
+        <x:v>45908.4152478819</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -946,7 +1186,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4159268171</x:v>
+        <x:v>45908.4159935185</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -978,7 +1218,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45929.8031680903</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,7 +1248,7 @@
       </x:c>
       <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45909.4156471412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1040,7 +1280,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45909.4813184838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,7 +1312,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45934.3921784722</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,7 +1344,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45908.4159268171</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1136,7 +1376,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45915.017959375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1408,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1440,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,11 +1468,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1255,16 +1493,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,16 +1525,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,16 +1557,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45909.5598096875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,16 +1589,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45915.0177508912</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,16 +1621,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.415119213</x:v>
+        <x:v>45937.3496776968</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,16 +1653,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4149912847</x:v>
+        <x:v>45931.4574162847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,16 +1685,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45915.0178822917</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,16 +1717,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,16 +1749,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45915.0180269329</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,16 +1781,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.0174484143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,16 +1813,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45915.017606713</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,16 +1845,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45915.0181048611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1639,16 +1877,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1666,6 +1904,870 @@
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
     </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45908.4155668981</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45908.4157890046</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45908.4160626968</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45929.3962647338</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45908.4151978009</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45909.4151439468</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45909.4157390394</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45915.0176778125</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45908.4154959491</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45908.4156496181</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45937.3496776968</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45909.415119213</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45909.4149912847</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45918.5069047454</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45909.5098578704</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45908.4149094097</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6655889236</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45908.4154908912</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45915.0175257292</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45908.4147947569</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45915.0173689815</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45908.4160849537</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45916.5847720255</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E53" s="3">
+        <x:v>45931.5006549421</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:20">
+      <x:c r="A54" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E54" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s"/>
+      <x:c r="G54" s="2" t="s"/>
+      <x:c r="H54" s="2" t="s"/>
+      <x:c r="I54" s="2" t="s"/>
+      <x:c r="J54" s="2" t="s"/>
+      <x:c r="K54" s="2" t="s"/>
+      <x:c r="L54" s="2" t="s"/>
+      <x:c r="M54" s="2" t="s"/>
+      <x:c r="N54" s="2" t="s"/>
+      <x:c r="O54" s="2" t="s"/>
+      <x:c r="P54" s="2" t="s"/>
+      <x:c r="Q54" s="2" t="s"/>
+      <x:c r="R54" s="2" t="s"/>
+      <x:c r="S54" s="2" t="s"/>
+      <x:c r="T54" s="2" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20">
+      <x:c r="A55" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E55" s="3">
+        <x:v>45937.3509163542</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s"/>
+      <x:c r="G55" s="2" t="s"/>
+      <x:c r="H55" s="2" t="s"/>
+      <x:c r="I55" s="2" t="s"/>
+      <x:c r="J55" s="2" t="s"/>
+      <x:c r="K55" s="2" t="s"/>
+      <x:c r="L55" s="2" t="s"/>
+      <x:c r="M55" s="2" t="s"/>
+      <x:c r="N55" s="2" t="s"/>
+      <x:c r="O55" s="2" t="s"/>
+      <x:c r="P55" s="2" t="s"/>
+      <x:c r="Q55" s="2" t="s"/>
+      <x:c r="R55" s="2" t="s"/>
+      <x:c r="S55" s="2" t="s"/>
+      <x:c r="T55" s="2" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:20">
+      <x:c r="A56" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E56" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s"/>
+      <x:c r="G56" s="2" t="s"/>
+      <x:c r="H56" s="2" t="s"/>
+      <x:c r="I56" s="2" t="s"/>
+      <x:c r="J56" s="2" t="s"/>
+      <x:c r="K56" s="2" t="s"/>
+      <x:c r="L56" s="2" t="s"/>
+      <x:c r="M56" s="2" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
+      <x:c r="P56" s="2" t="s"/>
+      <x:c r="Q56" s="2" t="s"/>
+      <x:c r="R56" s="2" t="s"/>
+      <x:c r="S56" s="2" t="s"/>
+      <x:c r="T56" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1678,6 +2780,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus 2 (MTHS003) Location : 1125- 170 Time : Sunday(10:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -474,7 +474,7 @@
     <x:t>مينا ميلاد فانوس اسحق</x:t>
   </x:si>
   <x:si>
-    <x:t>Mena Melad Fanous Isaac</x:t>
+    <x:t>Mina Milad Fanous Isaac</x:t>
   </x:si>
   <x:si>
     <x:t>2240003</x:t>

--- a/downloaded_files/MTHS003_Tutorial-35847.xlsx
+++ b/downloaded_files/MTHS003_Tutorial-35847.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -100,6 +100,9 @@
   </x:si>
   <x:si>
     <x:t>اسراء عبدالحميد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esraa Abdelhameed Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240025</x:t>
@@ -1246,7 +1249,9 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E9" s="3">
         <x:v>45909.4156471412</x:v>
       </x:c>
@@ -1271,13 +1276,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45909.4813184838</x:v>
@@ -1303,13 +1308,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45934.3921784722</x:v>
@@ -1335,13 +1340,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45908.4159268171</x:v>
@@ -1367,13 +1372,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45915.017959375</x:v>
@@ -1399,13 +1404,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45919.9748653935</x:v>
@@ -1431,13 +1436,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45908.4153628819</x:v>
@@ -1463,10 +1468,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
@@ -1493,13 +1498,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45908.4160109606</x:v>
@@ -1525,13 +1530,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6648693634</x:v>
@@ -1557,13 +1562,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45909.5598096875</x:v>
@@ -1589,13 +1594,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45915.0177508912</x:v>
@@ -1621,13 +1626,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45937.3496776968</x:v>
@@ -1653,13 +1658,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45931.4574162847</x:v>
@@ -1685,13 +1690,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45915.0178822917</x:v>
@@ -1717,13 +1722,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6834598032</x:v>
@@ -1749,13 +1754,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45915.0180269329</x:v>
@@ -1781,13 +1786,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45915.0174484143</x:v>
@@ -1813,13 +1818,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45915.017606713</x:v>
@@ -1845,13 +1850,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45915.0181048611</x:v>
@@ -1877,13 +1882,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45908.4159728819</x:v>
@@ -1909,13 +1914,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45908.4155668981</x:v>
@@ -1941,13 +1946,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45908.4157890046</x:v>
@@ -1973,13 +1978,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45908.4160626968</x:v>
@@ -2005,13 +2010,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45929.3962647338</x:v>
@@ -2037,13 +2042,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45908.4151978009</x:v>
@@ -2069,13 +2074,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45909.4151439468</x:v>
@@ -2101,13 +2106,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45909.4157390394</x:v>
@@ -2133,13 +2138,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45915.0176778125</x:v>
@@ -2165,13 +2170,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45908.4154959491</x:v>
@@ -2197,13 +2202,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45908.4156496181</x:v>
@@ -2229,13 +2234,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45937.3496776968</x:v>
@@ -2261,13 +2266,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45909.415119213</x:v>
@@ -2293,13 +2298,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45909.4149912847</x:v>
@@ -2325,13 +2330,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45918.5069047454</x:v>
@@ -2357,13 +2362,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45909.5098578704</x:v>
@@ -2389,13 +2394,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45908.4149094097</x:v>
@@ -2421,13 +2426,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45907.6655889236</x:v>
@@ -2453,13 +2458,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45908.4154908912</x:v>
@@ -2485,13 +2490,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45915.0175257292</x:v>
@@ -2517,13 +2522,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45908.4147947569</x:v>
@@ -2549,13 +2554,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45915.0173689815</x:v>
@@ -2581,13 +2586,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
         <x:v>45908.4160849537</x:v>
@@ -2613,13 +2618,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
         <x:v>45916.5847720255</x:v>
@@ -2645,13 +2650,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
         <x:v>45931.5006549421</x:v>
@@ -2677,13 +2682,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D54" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
         <x:v>45908.4153125</x:v>
@@ -2709,13 +2714,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D55" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
         <x:v>45937.3509163542</x:v>
@@ -2741,13 +2746,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D56" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
         <x:v>45908.4155164352</x:v>
